--- a/fMRI Tasks/WASABI bodymap/stimuli/orders/stimOrder8.xlsx
+++ b/fMRI Tasks/WASABI bodymap/stimuli/orders/stimOrder8.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,32 +387,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -432,7 +432,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -452,7 +452,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -462,12 +462,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -477,52 +477,52 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -532,22 +532,22 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -563,6 +563,66 @@
     <row r="37" spans="1:1">
       <c r="A37">
         <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/fMRI Tasks/WASABI bodymap/stimuli/orders/stimOrder8.xlsx
+++ b/fMRI Tasks/WASABI bodymap/stimuli/orders/stimOrder8.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,17 +397,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -422,7 +422,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -437,7 +437,7 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -452,17 +452,17 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -472,27 +472,27 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -502,12 +502,12 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -517,12 +517,12 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -567,62 +567,22 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
